--- a/biology/Botanique/Liste_de_variétés_de_pommes_de_terre/Liste_de_variétés_de_pommes_de_terre.xlsx
+++ b/biology/Botanique/Liste_de_variétés_de_pommes_de_terre/Liste_de_variétés_de_pommes_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_pommes_de_terre</t>
+          <t>Liste_de_variétés_de_pommes_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste de variétés de pommes de terre créées dans divers pays du monde. Il s'agit généralement de variétés inscrites dans les listes officielles des différents pays tant pour la consommation humaine que pour l'usage industriel, mais certaines peuvent n'avoir qu'un intérêt historique ou scientifique.  
-En France,  le catalogue officiel des espèces et variétés comptait, en mai 2020, 223 variétés « inscrites  » de pommes de terre[1]. Ce catalogue, géré par le comité technique permanent de la sélection (CTPS) contient les variétés ayant satisfait aux tests DHS (distinction, homogénéité, stabilité) et VAT (valeur agronomique et technologique), préalables à l'autorisation de commercialisation.
+En France,  le catalogue officiel des espèces et variétés comptait, en mai 2020, 223 variétés « inscrites  » de pommes de terre. Ce catalogue, géré par le comité technique permanent de la sélection (CTPS) contient les variétés ayant satisfait aux tests DHS (distinction, homogénéité, stabilité) et VAT (valeur agronomique et technologique), préalables à l'autorisation de commercialisation.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_pommes_de_terre</t>
+          <t>Liste_de_variétés_de_pommes_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
